--- a/Data/EC/NIT-9010695734.xlsx
+++ b/Data/EC/NIT-9010695734.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C727981-4D59-44B8-AD6C-37E7DA3252E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1BDB4C7-B5A6-4AF8-94D1-E56BE13EA2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A3024258-13DC-46FD-901D-96E916600C9F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A295A80A-C00A-49C6-8881-8709A7704106}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="122">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,31 +65,244 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73190337</t>
+  </si>
+  <si>
+    <t>EDUARDO FLOREZ LARA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>1045670210</t>
+  </si>
+  <si>
+    <t>DIEGO ALEXANDER DIAZ ORTIZ</t>
+  </si>
+  <si>
+    <t>73187111</t>
+  </si>
+  <si>
+    <t>RAFAEL IGNACIO FERNANDEZ ZUÑIGA</t>
+  </si>
+  <si>
+    <t>1128063151</t>
+  </si>
+  <si>
+    <t>KATYA MILENIS RODRIGUEZ DIAZ</t>
+  </si>
+  <si>
+    <t>73211529</t>
+  </si>
+  <si>
+    <t>ELY ALFREDO FERNANDEZ CAIROZA</t>
+  </si>
+  <si>
+    <t>1143349815</t>
+  </si>
+  <si>
+    <t>ALEXANDER DE JESUS CORREA NIEVES</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1047405345</t>
+  </si>
+  <si>
+    <t>KEISY VANESA SANCHEZ ROMERO</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>1015429866</t>
+  </si>
+  <si>
+    <t>JOSE LUIS GONZALEZ PETRO</t>
+  </si>
+  <si>
+    <t>45499877</t>
+  </si>
+  <si>
+    <t>MARLY PEREZ LOMBANA</t>
+  </si>
+  <si>
+    <t>1102835840</t>
+  </si>
+  <si>
+    <t>DIANA CAROLINA BALLESTAS ARRIETA</t>
+  </si>
+  <si>
+    <t>1128062374</t>
+  </si>
+  <si>
+    <t>VICTOR ALFONSO MARIMON AGUASLIMPIAS</t>
+  </si>
+  <si>
+    <t>45541075</t>
+  </si>
+  <si>
+    <t>YANIRIS MERCEDES BOLIVAR VELEZ</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>9104976</t>
+  </si>
+  <si>
+    <t>JHONNY ENRIQUE CUADRADO MADRID</t>
+  </si>
+  <si>
+    <t>73194098</t>
+  </si>
+  <si>
+    <t>MARIO MARTINEZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>1128051153</t>
+  </si>
+  <si>
+    <t>JAVIER EMILIO OROZCO JARAMILLO</t>
+  </si>
+  <si>
+    <t>1110499295</t>
+  </si>
+  <si>
+    <t>NATALIA LILIANA GONZALEZ SALCEDO</t>
+  </si>
+  <si>
+    <t>22799709</t>
+  </si>
+  <si>
+    <t>LAIDIS ARAUJO SANMARTIN</t>
+  </si>
+  <si>
+    <t>1143379820</t>
+  </si>
+  <si>
+    <t>YURANIS DEL CARMEN RODRIGUEZ CASTAÑO</t>
+  </si>
+  <si>
+    <t>33100838</t>
+  </si>
+  <si>
+    <t>ANA ISABEL MORENO CARMONA</t>
+  </si>
+  <si>
+    <t>1151449115</t>
+  </si>
+  <si>
+    <t>WILFREDO ECHEVERRIA GAVIRIA</t>
+  </si>
+  <si>
+    <t>1143383987</t>
+  </si>
+  <si>
+    <t>INEYDA MARIA HERRERA PUERTO</t>
+  </si>
+  <si>
+    <t>1003504730</t>
+  </si>
+  <si>
+    <t>NEIDER ENRIQUE CONTRERAS MENDEZ</t>
+  </si>
+  <si>
+    <t>45522445</t>
+  </si>
+  <si>
+    <t>ALEXANDRA PAJARO SANABRIA</t>
+  </si>
+  <si>
+    <t>64522243</t>
+  </si>
+  <si>
+    <t>PATRICIA DEL CARMEN BALDOVINO VILLERO</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>45547986</t>
+  </si>
+  <si>
+    <t>LUISA CARMELA VASQUEZ BELTRAN</t>
+  </si>
+  <si>
     <t>64526129</t>
   </si>
   <si>
     <t>MARICEL ALVAREZ MORALES</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
     <t>79614880</t>
   </si>
   <si>
     <t>WALTER ENRIQUE MORENO BETANCOURTH</t>
   </si>
   <si>
-    <t>9104976</t>
-  </si>
-  <si>
-    <t>JHONNY ENRIQUE CUADRADO MADRID</t>
-  </si>
-  <si>
-    <t>22799709</t>
-  </si>
-  <si>
-    <t>LAIDIS ARAUJO SANMARTIN</t>
+    <t>1143326648</t>
+  </si>
+  <si>
+    <t>JORGY FLOREZ LARA</t>
+  </si>
+  <si>
+    <t>1030605794</t>
+  </si>
+  <si>
+    <t>JEFFERSON MANUEL ANILLO BARRIOS</t>
+  </si>
+  <si>
+    <t>22798796</t>
+  </si>
+  <si>
+    <t>MARIA ANGELICA CASANOVA GARCIA</t>
+  </si>
+  <si>
+    <t>1019099209</t>
+  </si>
+  <si>
+    <t>SEBASTIAN ANDRES CANTOR AGUILERA</t>
+  </si>
+  <si>
+    <t>80090208</t>
+  </si>
+  <si>
+    <t>ALEJANDRO OSPINA RAMIREZ</t>
+  </si>
+  <si>
+    <t>1026294913</t>
+  </si>
+  <si>
+    <t>GERONIMO TUCCI CAMPOS</t>
+  </si>
+  <si>
+    <t>1030548456</t>
+  </si>
+  <si>
+    <t>LUIS HERNAN CACERES ROMERO</t>
   </si>
   <si>
     <t>1047413224</t>
@@ -98,163 +311,40 @@
     <t>RICARDO CESAR CAMACHO BUENO</t>
   </si>
   <si>
-    <t>1143383987</t>
-  </si>
-  <si>
-    <t>INEYDA MARIA HERRERA PUERTO</t>
-  </si>
-  <si>
-    <t>1030548456</t>
-  </si>
-  <si>
-    <t>LUIS HERNAN CACERES ROMERO</t>
-  </si>
-  <si>
-    <t>1110499295</t>
-  </si>
-  <si>
-    <t>NATALIA LILIANA GONZALEZ SALCEDO</t>
-  </si>
-  <si>
-    <t>45522445</t>
-  </si>
-  <si>
-    <t>ALEXANDRA PAJARO SANABRIA</t>
-  </si>
-  <si>
-    <t>1143379820</t>
-  </si>
-  <si>
-    <t>YURANIS DEL CARMEN RODRIGUEZ CASTAÑO</t>
-  </si>
-  <si>
-    <t>1015429866</t>
-  </si>
-  <si>
-    <t>JOSE LUIS GONZALEZ PETRO</t>
-  </si>
-  <si>
-    <t>1019099209</t>
-  </si>
-  <si>
-    <t>SEBASTIAN ANDRES CANTOR AGUILERA</t>
-  </si>
-  <si>
-    <t>80090208</t>
-  </si>
-  <si>
-    <t>ALEJANDRO OSPINA RAMIREZ</t>
-  </si>
-  <si>
-    <t>1128051153</t>
-  </si>
-  <si>
-    <t>JAVIER EMILIO OROZCO JARAMILLO</t>
-  </si>
-  <si>
-    <t>1143349815</t>
-  </si>
-  <si>
-    <t>ALEXANDER DE JESUS CORREA NIEVES</t>
-  </si>
-  <si>
-    <t>1030605794</t>
-  </si>
-  <si>
-    <t>JEFFERSON MANUEL ANILLO BARRIOS</t>
-  </si>
-  <si>
-    <t>1151449115</t>
-  </si>
-  <si>
-    <t>WILFREDO ECHEVERRIA GAVIRIA</t>
-  </si>
-  <si>
-    <t>1026294913</t>
-  </si>
-  <si>
-    <t>GERONIMO TUCCI CAMPOS</t>
-  </si>
-  <si>
     <t>1014279587</t>
   </si>
   <si>
     <t>DANYS CAMILA CIFUENTES CASTELBLANCO</t>
   </si>
   <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>45541075</t>
-  </si>
-  <si>
-    <t>YANIRIS MERCEDES BOLIVAR VELEZ</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>22798796</t>
-  </si>
-  <si>
-    <t>MARIA ANGELICA CASANOVA GARCIA</t>
-  </si>
-  <si>
-    <t>64522243</t>
-  </si>
-  <si>
-    <t>PATRICIA DEL CARMEN BALDOVINO VILLERO</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>1047405345</t>
-  </si>
-  <si>
-    <t>KEISY VANESA SANCHEZ ROMERO</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>73194098</t>
-  </si>
-  <si>
-    <t>MARIO MARTINEZ RAMIREZ</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>45547986</t>
-  </si>
-  <si>
-    <t>LUISA CARMELA VASQUEZ BELTRAN</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>33100838</t>
-  </si>
-  <si>
-    <t>ANA ISABEL MORENO CARMONA</t>
-  </si>
-  <si>
-    <t>1003504730</t>
-  </si>
-  <si>
-    <t>NEIDER ENRIQUE CONTRERAS MENDEZ</t>
-  </si>
-  <si>
-    <t>1128063151</t>
-  </si>
-  <si>
-    <t>KATYA MILENIS RODRIGUEZ DIAZ</t>
+    <t>1042584373</t>
+  </si>
+  <si>
+    <t>YENIFER PADILLA CUESTA</t>
+  </si>
+  <si>
+    <t>1003202611</t>
+  </si>
+  <si>
+    <t>ALFRED ANDRES QUINTERO QUINTERO</t>
+  </si>
+  <si>
+    <t>1047447759</t>
+  </si>
+  <si>
+    <t>KELLY DEL CARMEN CONTRERAS MEDINA</t>
+  </si>
+  <si>
+    <t>1007523433</t>
+  </si>
+  <si>
+    <t>CLAUDIA PATRICIA SALGADO MEDRANO</t>
+  </si>
+  <si>
+    <t>1032452616</t>
+  </si>
+  <si>
+    <t>ALVARO ANDRES CAMARGO TOVAR</t>
   </si>
   <si>
     <t>1033807078</t>
@@ -269,97 +359,16 @@
     <t>LAURA NATHALYE GODOY CASTILLO</t>
   </si>
   <si>
-    <t>45499877</t>
-  </si>
-  <si>
-    <t>MARLY PEREZ LOMBANA</t>
+    <t>1041973482</t>
+  </si>
+  <si>
+    <t>ANDRES DAVID QUINTERO OSPINO</t>
   </si>
   <si>
     <t>1052096113</t>
   </si>
   <si>
     <t>MARIO RAFAEL VERGARA CASTRO</t>
-  </si>
-  <si>
-    <t>1007523433</t>
-  </si>
-  <si>
-    <t>CLAUDIA PATRICIA SALGADO MEDRANO</t>
-  </si>
-  <si>
-    <t>1003202611</t>
-  </si>
-  <si>
-    <t>ALFRED ANDRES QUINTERO QUINTERO</t>
-  </si>
-  <si>
-    <t>1032452616</t>
-  </si>
-  <si>
-    <t>ALVARO ANDRES CAMARGO TOVAR</t>
-  </si>
-  <si>
-    <t>73187111</t>
-  </si>
-  <si>
-    <t>RAFAEL IGNACIO FERNANDEZ ZUÑIGA</t>
-  </si>
-  <si>
-    <t>1128062374</t>
-  </si>
-  <si>
-    <t>VICTOR ALFONSO MARIMON AGUASLIMPIAS</t>
-  </si>
-  <si>
-    <t>1041973482</t>
-  </si>
-  <si>
-    <t>ANDRES DAVID QUINTERO OSPINO</t>
-  </si>
-  <si>
-    <t>1042584373</t>
-  </si>
-  <si>
-    <t>YENIFER PADILLA CUESTA</t>
-  </si>
-  <si>
-    <t>1143326648</t>
-  </si>
-  <si>
-    <t>JORGY FLOREZ LARA</t>
-  </si>
-  <si>
-    <t>73211529</t>
-  </si>
-  <si>
-    <t>ELY ALFREDO FERNANDEZ CAIROZA</t>
-  </si>
-  <si>
-    <t>1045670210</t>
-  </si>
-  <si>
-    <t>DIEGO ALEXANDER DIAZ ORTIZ</t>
-  </si>
-  <si>
-    <t>1102835840</t>
-  </si>
-  <si>
-    <t>DIANA CAROLINA BALLESTAS ARRIETA</t>
-  </si>
-  <si>
-    <t>1047447759</t>
-  </si>
-  <si>
-    <t>KELLY DEL CARMEN CONTRERAS MEDINA</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -403,7 +412,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,7 +782,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{205D20E2-EA5C-E78C-8407-FCC5201CFC17}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C943D75-34E0-1960-21F9-23882C1F98B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1124,32 +1133,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DA9E3C-2BE9-44C4-81A9-3E1F72F24BB3}">
-  <dimension ref="B2:J147"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DD1A72-C1C9-4A12-8309-2866E23B9221}">
+  <dimension ref="B2:J174"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1158,7 +1167,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1169,7 +1178,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1180,7 +1189,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1191,10 +1200,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1207,8 +1216,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1223,15 +1232,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>9030579</v>
+        <v>10953619</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1239,27 +1248,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C13" s="5">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F13" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1279,16 +1288,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1302,76 +1311,76 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>34000</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>850000</v>
+        <v>900000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>64000</v>
+        <v>56940</v>
       </c>
       <c r="G17" s="18">
-        <v>1600000</v>
+        <v>900000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>50400</v>
+        <v>56940</v>
       </c>
       <c r="G18" s="18">
-        <v>1260000</v>
+        <v>900000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>36000</v>
+        <v>56940</v>
       </c>
       <c r="G19" s="18">
         <v>900000</v>
@@ -1380,777 +1389,777 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>108000</v>
+        <v>56940</v>
       </c>
       <c r="G20" s="18">
-        <v>6000000</v>
+        <v>900000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>114560</v>
+        <v>80000</v>
       </c>
       <c r="G21" s="18">
-        <v>2864000</v>
+        <v>2000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" s="18">
-        <v>48000</v>
+        <v>80000</v>
       </c>
       <c r="G22" s="18">
-        <v>1200000</v>
+        <v>2000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F23" s="18">
-        <v>76560</v>
+        <v>80000</v>
       </c>
       <c r="G23" s="18">
-        <v>1914000</v>
+        <v>2000000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F24" s="18">
-        <v>34000</v>
+        <v>80000</v>
       </c>
       <c r="G24" s="18">
-        <v>850000</v>
+        <v>2000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F25" s="18">
-        <v>64560</v>
+        <v>80000</v>
       </c>
       <c r="G25" s="18">
-        <v>1614000</v>
+        <v>2000000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G26" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" s="18">
-        <v>100000</v>
+        <v>56940</v>
       </c>
       <c r="G27" s="18">
-        <v>2500000</v>
+        <v>1423500</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F28" s="18">
-        <v>200000</v>
+        <v>56940</v>
       </c>
       <c r="G28" s="18">
-        <v>5000000</v>
+        <v>1423500</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F29" s="18">
-        <v>36000</v>
+        <v>56940</v>
       </c>
       <c r="G29" s="18">
-        <v>900000</v>
+        <v>1423500</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F30" s="18">
-        <v>116560</v>
+        <v>56940</v>
       </c>
       <c r="G30" s="18">
-        <v>2914000</v>
+        <v>1423500</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>1423500</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" s="18">
-        <v>48000</v>
+        <v>56940</v>
       </c>
       <c r="G32" s="18">
-        <v>1200000</v>
+        <v>1423500</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F33" s="18">
-        <v>48000</v>
+        <v>56940</v>
       </c>
       <c r="G33" s="18">
-        <v>1200000</v>
+        <v>1423500</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="F34" s="18">
-        <v>37800</v>
+        <v>56940</v>
       </c>
       <c r="G34" s="18">
-        <v>1950000</v>
+        <v>1423500</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F35" s="18">
-        <v>52800</v>
+        <v>56940</v>
       </c>
       <c r="G35" s="18">
-        <v>2200000</v>
+        <v>1423500</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18">
-        <v>72000</v>
+        <v>56940</v>
       </c>
       <c r="G36" s="18">
-        <v>2200000</v>
+        <v>1423500</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="F37" s="18">
-        <v>54000</v>
+        <v>56940</v>
       </c>
       <c r="G37" s="18">
-        <v>1950000</v>
+        <v>1423500</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="F38" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G38" s="18">
-        <v>1220000</v>
+        <v>1423500</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="F39" s="18">
-        <v>30666</v>
+        <v>56940</v>
       </c>
       <c r="G39" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
       <c r="F40" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G40" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
-        <v>64000</v>
+        <v>116560</v>
       </c>
       <c r="G41" s="18">
-        <v>2200000</v>
+        <v>2914000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="F42" s="18">
-        <v>40000</v>
+        <v>92400</v>
       </c>
       <c r="G42" s="18">
-        <v>1300000</v>
+        <v>1378000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F43" s="18">
-        <v>64000</v>
+        <v>92400</v>
       </c>
       <c r="G43" s="18">
-        <v>2200000</v>
+        <v>1378000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="F44" s="18">
-        <v>17013</v>
+        <v>92400</v>
       </c>
       <c r="G44" s="18">
-        <v>1300000</v>
+        <v>1378000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="F45" s="18">
-        <v>64000</v>
+        <v>92400</v>
       </c>
       <c r="G45" s="18">
-        <v>2200000</v>
+        <v>1378000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="F46" s="18">
-        <v>40000</v>
+        <v>92400</v>
       </c>
       <c r="G46" s="18">
-        <v>1300000</v>
+        <v>1378000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="F47" s="18">
-        <v>52000</v>
+        <v>64000</v>
       </c>
       <c r="G47" s="18">
-        <v>1423500</v>
+        <v>1378000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="F48" s="18">
-        <v>56940</v>
+        <v>64000</v>
       </c>
       <c r="G48" s="18">
-        <v>1423500</v>
+        <v>1378000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>69</v>
+        <v>27</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F49" s="18">
-        <v>84000</v>
+        <v>64000</v>
       </c>
       <c r="G49" s="18">
-        <v>2100000</v>
+        <v>1378000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="F50" s="18">
-        <v>56940</v>
+        <v>60000</v>
       </c>
       <c r="G50" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F51" s="18">
-        <v>68000</v>
+        <v>56940</v>
       </c>
       <c r="G51" s="18">
-        <v>1700000</v>
+        <v>1423500</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F52" s="18">
-        <v>68000</v>
+        <v>56940</v>
       </c>
       <c r="G52" s="18">
-        <v>1700000</v>
+        <v>1423500</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F53" s="18">
         <v>56940</v>
@@ -2162,18 +2171,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F54" s="18">
         <v>56940</v>
@@ -2185,18 +2194,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F55" s="18">
         <v>56940</v>
@@ -2208,455 +2217,455 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F56" s="18">
-        <v>63000</v>
+        <v>60000</v>
       </c>
       <c r="G56" s="18">
-        <v>1575000</v>
+        <v>1500000</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F57" s="18">
-        <v>320000</v>
+        <v>60000</v>
       </c>
       <c r="G57" s="18">
-        <v>8000000</v>
+        <v>1500000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F58" s="18">
-        <v>56940</v>
+        <v>60000</v>
       </c>
       <c r="G58" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F59" s="18">
-        <v>92400</v>
+        <v>63000</v>
       </c>
       <c r="G59" s="18">
-        <v>2200000</v>
+        <v>1500000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F60" s="18">
-        <v>75600</v>
+        <v>63000</v>
       </c>
       <c r="G60" s="18">
-        <v>1160000</v>
+        <v>1500000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="F61" s="18">
-        <v>56940</v>
+        <v>75600</v>
       </c>
       <c r="G61" s="18">
-        <v>1423500</v>
+        <v>1890000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F62" s="18">
-        <v>56940</v>
+        <v>75600</v>
       </c>
       <c r="G62" s="18">
-        <v>1300000</v>
+        <v>1890000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F63" s="18">
-        <v>56940</v>
+        <v>75600</v>
       </c>
       <c r="G63" s="18">
-        <v>1423500</v>
+        <v>1890000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F64" s="18">
-        <v>56940</v>
+        <v>75600</v>
       </c>
       <c r="G64" s="18">
-        <v>1300000</v>
+        <v>1890000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F65" s="18">
-        <v>92400</v>
+        <v>75600</v>
       </c>
       <c r="G65" s="18">
-        <v>2200000</v>
+        <v>1890000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="F66" s="18">
-        <v>56940</v>
+        <v>92400</v>
       </c>
       <c r="G66" s="18">
-        <v>1423500</v>
+        <v>2310000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="F67" s="18">
-        <v>56940</v>
+        <v>92400</v>
       </c>
       <c r="G67" s="18">
-        <v>1423500</v>
+        <v>2310000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="F68" s="18">
-        <v>80000</v>
+        <v>92400</v>
       </c>
       <c r="G68" s="18">
-        <v>2000000</v>
+        <v>2310000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="F69" s="18">
-        <v>63000</v>
+        <v>92400</v>
       </c>
       <c r="G69" s="18">
-        <v>1575000</v>
+        <v>2310000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F70" s="18">
-        <v>56940</v>
+        <v>72000</v>
       </c>
       <c r="G70" s="18">
-        <v>1423500</v>
+        <v>2310000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="F71" s="18">
-        <v>92400</v>
+        <v>52800</v>
       </c>
       <c r="G71" s="18">
-        <v>2200000</v>
+        <v>2310000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F72" s="18">
-        <v>56940</v>
+        <v>50400</v>
       </c>
       <c r="G72" s="18">
-        <v>1423500</v>
+        <v>1260000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>99</v>
+        <v>46</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F73" s="18">
-        <v>80000</v>
+        <v>56940</v>
       </c>
       <c r="G73" s="18">
-        <v>2000000</v>
+        <v>1423500</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="F74" s="18">
         <v>56940</v>
       </c>
       <c r="G74" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10">
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F75" s="18">
         <v>56940</v>
@@ -2668,18 +2677,18 @@
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10">
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F76" s="18">
         <v>56940</v>
@@ -2691,18 +2700,18 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10">
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F77" s="18">
         <v>56940</v>
@@ -2714,21 +2723,21 @@
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10">
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="F78" s="18">
-        <v>56940</v>
+        <v>17013</v>
       </c>
       <c r="G78" s="18">
         <v>1423500</v>
@@ -2737,133 +2746,133 @@
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10">
+    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F79" s="18">
-        <v>84000</v>
+        <v>36000</v>
       </c>
       <c r="G79" s="18">
-        <v>2100000</v>
+        <v>900000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10">
+    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F80" s="18">
-        <v>75600</v>
+        <v>76560</v>
       </c>
       <c r="G80" s="18">
-        <v>1160000</v>
+        <v>1914000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10">
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F81" s="18">
-        <v>68000</v>
+        <v>36000</v>
       </c>
       <c r="G81" s="18">
-        <v>1700000</v>
+        <v>900000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10">
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F82" s="18">
-        <v>68000</v>
+        <v>64560</v>
       </c>
       <c r="G82" s="18">
-        <v>1700000</v>
+        <v>1614000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10">
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F83" s="18">
         <v>56940</v>
       </c>
       <c r="G83" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10">
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="F84" s="18">
         <v>56940</v>
@@ -2875,41 +2884,41 @@
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10">
+    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F85" s="18">
-        <v>320000</v>
+        <v>56940</v>
       </c>
       <c r="G85" s="18">
-        <v>8000000</v>
+        <v>1423500</v>
       </c>
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10">
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F86" s="18">
         <v>56940</v>
@@ -2921,248 +2930,248 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10">
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F87" s="18">
-        <v>92400</v>
+        <v>56940</v>
       </c>
       <c r="G87" s="18">
-        <v>2200000</v>
+        <v>1423500</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10">
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F88" s="18">
-        <v>56940</v>
+        <v>48000</v>
       </c>
       <c r="G88" s="18">
-        <v>1423500</v>
+        <v>1200000</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="F89" s="18">
-        <v>56940</v>
+        <v>114560</v>
       </c>
       <c r="G89" s="18">
-        <v>1423500</v>
+        <v>2864000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F90" s="18">
-        <v>56940</v>
+        <v>84000</v>
       </c>
       <c r="G90" s="18">
-        <v>1423500</v>
+        <v>2100000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10">
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="F91" s="18">
-        <v>52000</v>
+        <v>84000</v>
       </c>
       <c r="G91" s="18">
-        <v>1423500</v>
+        <v>2100000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="F92" s="18">
-        <v>56940</v>
+        <v>84000</v>
       </c>
       <c r="G92" s="18">
-        <v>1423500</v>
+        <v>2100000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="F93" s="18">
-        <v>63000</v>
+        <v>84000</v>
       </c>
       <c r="G93" s="18">
-        <v>1575000</v>
+        <v>2100000</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10">
+    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F94" s="18">
-        <v>63000</v>
+        <v>84000</v>
       </c>
       <c r="G94" s="18">
-        <v>1575000</v>
+        <v>2100000</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10">
+    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="F95" s="18">
-        <v>56940</v>
+        <v>34000</v>
       </c>
       <c r="G95" s="18">
-        <v>1423500</v>
+        <v>850000</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F96" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G96" s="18">
-        <v>1575000</v>
+        <v>1423500</v>
       </c>
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10">
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="F97" s="18">
         <v>56940</v>
@@ -3174,44 +3183,44 @@
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10">
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="F98" s="18">
-        <v>320000</v>
+        <v>56940</v>
       </c>
       <c r="G98" s="18">
-        <v>8000000</v>
+        <v>1423500</v>
       </c>
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10">
+    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="F99" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G99" s="18">
         <v>1423500</v>
@@ -3220,90 +3229,90 @@
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10">
+    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="F100" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G100" s="18">
-        <v>1575000</v>
+        <v>1423500</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10">
+    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>106</v>
+        <v>29</v>
       </c>
       <c r="F101" s="18">
-        <v>92400</v>
+        <v>40000</v>
       </c>
       <c r="G101" s="18">
-        <v>2200000</v>
+        <v>1423500</v>
       </c>
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10">
+    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="F102" s="18">
-        <v>84000</v>
+        <v>40000</v>
       </c>
       <c r="G102" s="18">
-        <v>2100000</v>
+        <v>1423500</v>
       </c>
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10">
+    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="F103" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G103" s="18">
         <v>1423500</v>
@@ -3312,113 +3321,113 @@
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10">
+    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="F104" s="18">
-        <v>68000</v>
+        <v>30666</v>
       </c>
       <c r="G104" s="18">
-        <v>1700000</v>
+        <v>1423500</v>
       </c>
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10">
+    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F105" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G105" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H105" s="19"/>
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10">
+    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="F106" s="18">
-        <v>68000</v>
+        <v>52000</v>
       </c>
       <c r="G106" s="18">
-        <v>1700000</v>
+        <v>1300000</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10">
+    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="F107" s="18">
         <v>52000</v>
       </c>
       <c r="G107" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10">
+    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="F108" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G108" s="18">
         <v>1300000</v>
@@ -3427,87 +3436,87 @@
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10">
+    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="F109" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G109" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H109" s="19"/>
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10">
+    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="F110" s="18">
-        <v>56940</v>
+        <v>34000</v>
       </c>
       <c r="G110" s="18">
-        <v>1423500</v>
+        <v>850000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10">
+    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="F111" s="18">
-        <v>75600</v>
+        <v>64000</v>
       </c>
       <c r="G111" s="18">
-        <v>1160000</v>
+        <v>1600000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10">
+    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F112" s="18">
         <v>56940</v>
@@ -3519,18 +3528,18 @@
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="F113" s="18">
         <v>56940</v>
@@ -3542,18 +3551,18 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="F114" s="18">
         <v>56940</v>
@@ -3565,271 +3574,271 @@
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10">
+    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="F115" s="18">
-        <v>92400</v>
+        <v>56940</v>
       </c>
       <c r="G115" s="18">
-        <v>2200000</v>
+        <v>1423500</v>
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10">
+    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c r="F116" s="18">
-        <v>80000</v>
+        <v>56940</v>
       </c>
       <c r="G116" s="18">
-        <v>2000000</v>
+        <v>1423500</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10">
+    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="F117" s="18">
-        <v>56940</v>
+        <v>60000</v>
       </c>
       <c r="G117" s="18">
-        <v>1300000</v>
+        <v>737717</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10">
+    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="F118" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G118" s="18">
-        <v>1423500</v>
+        <v>1220000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10">
+    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="F119" s="18">
-        <v>75600</v>
+        <v>100000</v>
       </c>
       <c r="G119" s="18">
-        <v>1160000</v>
+        <v>2500000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10">
+    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="F120" s="18">
-        <v>56940</v>
+        <v>200000</v>
       </c>
       <c r="G120" s="18">
-        <v>1423500</v>
+        <v>5000000</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10">
+    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="F121" s="18">
-        <v>92400</v>
+        <v>48000</v>
       </c>
       <c r="G121" s="18">
-        <v>2200000</v>
+        <v>1200000</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="2:10">
+    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B122" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="F122" s="18">
-        <v>84000</v>
+        <v>48000</v>
       </c>
       <c r="G122" s="18">
-        <v>2100000</v>
+        <v>1200000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="2:10">
+    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B123" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="F123" s="18">
-        <v>92400</v>
+        <v>108000</v>
       </c>
       <c r="G123" s="18">
-        <v>2200000</v>
+        <v>6000000</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
       <c r="J123" s="20"/>
     </row>
-    <row r="124" spans="2:10">
+    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B124" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="F124" s="18">
-        <v>56940</v>
+        <v>54000</v>
       </c>
       <c r="G124" s="18">
-        <v>1300000</v>
+        <v>1950000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="2:10">
+    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B125" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="F125" s="18">
-        <v>320000</v>
+        <v>37800</v>
       </c>
       <c r="G125" s="18">
-        <v>8000000</v>
+        <v>1950000</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
       <c r="J125" s="20"/>
     </row>
-    <row r="126" spans="2:10">
+    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B126" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F126" s="18">
         <v>56940</v>
@@ -3841,41 +3850,41 @@
       <c r="I126" s="19"/>
       <c r="J126" s="20"/>
     </row>
-    <row r="127" spans="2:10">
+    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B127" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="F127" s="18">
-        <v>68000</v>
+        <v>56940</v>
       </c>
       <c r="G127" s="18">
-        <v>1700000</v>
+        <v>1423500</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="2:10">
+    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B128" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="D128" s="17" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="F128" s="18">
         <v>56940</v>
@@ -3887,18 +3896,18 @@
       <c r="I128" s="19"/>
       <c r="J128" s="20"/>
     </row>
-    <row r="129" spans="2:10">
+    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B129" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="F129" s="18">
         <v>56940</v>
@@ -3910,18 +3919,18 @@
       <c r="I129" s="19"/>
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="2:10">
+    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B130" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="F130" s="18">
         <v>56940</v>
@@ -3933,156 +3942,156 @@
       <c r="I130" s="19"/>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="2:10">
+    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B131" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F131" s="18">
-        <v>56940</v>
+        <v>60000</v>
       </c>
       <c r="G131" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="2:10">
+    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B132" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="F132" s="18">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="G132" s="18">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="2:10">
+    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B133" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="F133" s="18">
         <v>60000</v>
       </c>
       <c r="G133" s="18">
-        <v>1575000</v>
+        <v>1500000</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="2:10">
+    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B134" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="F134" s="18">
-        <v>60000</v>
+        <v>63000</v>
       </c>
       <c r="G134" s="18">
-        <v>1575000</v>
+        <v>1500000</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="2:10">
+    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B135" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="F135" s="18">
-        <v>56940</v>
+        <v>63000</v>
       </c>
       <c r="G135" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="20"/>
     </row>
-    <row r="136" spans="2:10">
+    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B136" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="F136" s="18">
-        <v>68000</v>
+        <v>56940</v>
       </c>
       <c r="G136" s="18">
-        <v>1700000</v>
+        <v>1423500</v>
       </c>
       <c r="H136" s="19"/>
       <c r="I136" s="19"/>
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="2:10">
+    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B137" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="F137" s="18">
         <v>56940</v>
@@ -4094,126 +4103,747 @@
       <c r="I137" s="19"/>
       <c r="J137" s="20"/>
     </row>
-    <row r="138" spans="2:10">
+    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B138" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="F138" s="18">
         <v>56940</v>
       </c>
       <c r="G138" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
       <c r="J138" s="20"/>
     </row>
-    <row r="139" spans="2:10">
+    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B139" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="F139" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G139" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="2:10">
+    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B140" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="F140" s="18">
         <v>52000</v>
       </c>
       <c r="G140" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="20"/>
     </row>
-    <row r="141" spans="2:10">
-      <c r="B141" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C141" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E141" s="22" t="s">
+    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B141" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D141" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F141" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G141" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H141" s="19"/>
+      <c r="I141" s="19"/>
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B142" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D142" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G142" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H142" s="19"/>
+      <c r="I142" s="19"/>
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B143" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D143" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G143" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B144" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D144" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F144" s="18">
+        <v>320000</v>
+      </c>
+      <c r="G144" s="18">
+        <v>8000000</v>
+      </c>
+      <c r="H144" s="19"/>
+      <c r="I144" s="19"/>
+      <c r="J144" s="20"/>
+    </row>
+    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B145" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D145" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" s="18">
+        <v>320000</v>
+      </c>
+      <c r="G145" s="18">
+        <v>8000000</v>
+      </c>
+      <c r="H145" s="19"/>
+      <c r="I145" s="19"/>
+      <c r="J145" s="20"/>
+    </row>
+    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B146" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D146" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="18">
+        <v>320000</v>
+      </c>
+      <c r="G146" s="18">
+        <v>8000000</v>
+      </c>
+      <c r="H146" s="19"/>
+      <c r="I146" s="19"/>
+      <c r="J146" s="20"/>
+    </row>
+    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B147" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D147" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="18">
+        <v>320000</v>
+      </c>
+      <c r="G147" s="18">
+        <v>8000000</v>
+      </c>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="20"/>
+    </row>
+    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B148" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D148" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="18">
+        <v>320000</v>
+      </c>
+      <c r="G148" s="18">
+        <v>8000000</v>
+      </c>
+      <c r="H148" s="19"/>
+      <c r="I148" s="19"/>
+      <c r="J148" s="20"/>
+    </row>
+    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B149" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D149" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149" s="18">
+        <v>68000</v>
+      </c>
+      <c r="G149" s="18">
+        <v>1700000</v>
+      </c>
+      <c r="H149" s="19"/>
+      <c r="I149" s="19"/>
+      <c r="J149" s="20"/>
+    </row>
+    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B150" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D150" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" s="18">
+        <v>68000</v>
+      </c>
+      <c r="G150" s="18">
+        <v>1700000</v>
+      </c>
+      <c r="H150" s="19"/>
+      <c r="I150" s="19"/>
+      <c r="J150" s="20"/>
+    </row>
+    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B151" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D151" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F151" s="18">
+        <v>68000</v>
+      </c>
+      <c r="G151" s="18">
+        <v>1700000</v>
+      </c>
+      <c r="H151" s="19"/>
+      <c r="I151" s="19"/>
+      <c r="J151" s="20"/>
+    </row>
+    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B152" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D152" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="18">
+        <v>68000</v>
+      </c>
+      <c r="G152" s="18">
+        <v>1700000</v>
+      </c>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="20"/>
+    </row>
+    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B153" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D153" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" s="18">
+        <v>68000</v>
+      </c>
+      <c r="G153" s="18">
+        <v>1700000</v>
+      </c>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="20"/>
+    </row>
+    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B154" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D154" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" s="18">
+        <v>68000</v>
+      </c>
+      <c r="G154" s="18">
+        <v>1700000</v>
+      </c>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19"/>
+      <c r="J154" s="20"/>
+    </row>
+    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B155" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D155" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" s="18">
+        <v>68000</v>
+      </c>
+      <c r="G155" s="18">
+        <v>1700000</v>
+      </c>
+      <c r="H155" s="19"/>
+      <c r="I155" s="19"/>
+      <c r="J155" s="20"/>
+    </row>
+    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B156" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D156" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F156" s="18">
+        <v>68000</v>
+      </c>
+      <c r="G156" s="18">
+        <v>1700000</v>
+      </c>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="20"/>
+    </row>
+    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B157" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D157" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="18">
+        <v>68000</v>
+      </c>
+      <c r="G157" s="18">
+        <v>1700000</v>
+      </c>
+      <c r="H157" s="19"/>
+      <c r="I157" s="19"/>
+      <c r="J157" s="20"/>
+    </row>
+    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B158" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D158" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="18">
+        <v>68000</v>
+      </c>
+      <c r="G158" s="18">
+        <v>1700000</v>
+      </c>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19"/>
+      <c r="J158" s="20"/>
+    </row>
+    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B159" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="F141" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G141" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H141" s="25"/>
-      <c r="I141" s="25"/>
-      <c r="J141" s="26"/>
-    </row>
-    <row r="146" spans="2:10">
-      <c r="B146" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C146" s="32"/>
-      <c r="H146" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-    </row>
-    <row r="147" spans="2:10">
-      <c r="B147" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="C147" s="32"/>
-      <c r="H147" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
+      <c r="D159" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F159" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G159" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19"/>
+      <c r="J159" s="20"/>
+    </row>
+    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B160" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D160" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F160" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G160" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H160" s="19"/>
+      <c r="I160" s="19"/>
+      <c r="J160" s="20"/>
+    </row>
+    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B161" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D161" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F161" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G161" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19"/>
+      <c r="J161" s="20"/>
+    </row>
+    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B162" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D162" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G162" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H162" s="19"/>
+      <c r="I162" s="19"/>
+      <c r="J162" s="20"/>
+    </row>
+    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B163" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G163" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H163" s="19"/>
+      <c r="I163" s="19"/>
+      <c r="J163" s="20"/>
+    </row>
+    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B164" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F164" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G164" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H164" s="19"/>
+      <c r="I164" s="19"/>
+      <c r="J164" s="20"/>
+    </row>
+    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B165" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F165" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G165" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="20"/>
+    </row>
+    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B166" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F166" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G166" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="20"/>
+    </row>
+    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B167" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G167" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H167" s="19"/>
+      <c r="I167" s="19"/>
+      <c r="J167" s="20"/>
+    </row>
+    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B168" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E168" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G168" s="24">
+        <v>1423500</v>
+      </c>
+      <c r="H168" s="25"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="26"/>
+    </row>
+    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B173" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C173" s="32"/>
+      <c r="H173" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+    </row>
+    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B174" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C174" s="32"/>
+      <c r="H174" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I174" s="1"/>
+      <c r="J174" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="H147:J147"/>
-    <mergeCell ref="H146:J146"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="H174:J174"/>
+    <mergeCell ref="H173:J173"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9010695734.xlsx
+++ b/Data/EC/NIT-9010695734.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1BDB4C7-B5A6-4AF8-94D1-E56BE13EA2D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38BC9AC8-D816-4B11-BD93-D3D2B07E737C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A295A80A-C00A-49C6-8881-8709A7704106}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{78158A28-12FA-41E2-8935-B2E505FC296D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="121">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,310 +65,307 @@
     <t>CC</t>
   </si>
   <si>
-    <t>73190337</t>
-  </si>
-  <si>
-    <t>EDUARDO FLOREZ LARA</t>
+    <t>1143349815</t>
+  </si>
+  <si>
+    <t>ALEXANDER DE JESUS CORREA NIEVES</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1015429866</t>
+  </si>
+  <si>
+    <t>JOSE LUIS GONZALEZ PETRO</t>
+  </si>
+  <si>
+    <t>9104976</t>
+  </si>
+  <si>
+    <t>JHONNY ENRIQUE CUADRADO MADRID</t>
+  </si>
+  <si>
+    <t>1128051153</t>
+  </si>
+  <si>
+    <t>JAVIER EMILIO OROZCO JARAMILLO</t>
+  </si>
+  <si>
+    <t>1110499295</t>
+  </si>
+  <si>
+    <t>NATALIA LILIANA GONZALEZ SALCEDO</t>
+  </si>
+  <si>
+    <t>22799709</t>
+  </si>
+  <si>
+    <t>LAIDIS ARAUJO SANMARTIN</t>
+  </si>
+  <si>
+    <t>1143379820</t>
+  </si>
+  <si>
+    <t>YURANIS DEL CARMEN RODRIGUEZ CASTAÑO</t>
+  </si>
+  <si>
+    <t>1151449115</t>
+  </si>
+  <si>
+    <t>WILFREDO ECHEVERRIA GAVIRIA</t>
+  </si>
+  <si>
+    <t>1143383987</t>
+  </si>
+  <si>
+    <t>INEYDA MARIA HERRERA PUERTO</t>
+  </si>
+  <si>
+    <t>45522445</t>
+  </si>
+  <si>
+    <t>ALEXANDRA PAJARO SANABRIA</t>
+  </si>
+  <si>
+    <t>64526129</t>
+  </si>
+  <si>
+    <t>MARICEL ALVAREZ MORALES</t>
+  </si>
+  <si>
+    <t>79614880</t>
+  </si>
+  <si>
+    <t>WALTER ENRIQUE MORENO BETANCOURTH</t>
+  </si>
+  <si>
+    <t>1030605794</t>
+  </si>
+  <si>
+    <t>JEFFERSON MANUEL ANILLO BARRIOS</t>
+  </si>
+  <si>
+    <t>1019099209</t>
+  </si>
+  <si>
+    <t>SEBASTIAN ANDRES CANTOR AGUILERA</t>
+  </si>
+  <si>
+    <t>80090208</t>
+  </si>
+  <si>
+    <t>ALEJANDRO OSPINA RAMIREZ</t>
+  </si>
+  <si>
+    <t>1026294913</t>
+  </si>
+  <si>
+    <t>GERONIMO TUCCI CAMPOS</t>
+  </si>
+  <si>
+    <t>1030548456</t>
+  </si>
+  <si>
+    <t>LUIS HERNAN CACERES ROMERO</t>
+  </si>
+  <si>
+    <t>1047413224</t>
+  </si>
+  <si>
+    <t>RICARDO CESAR CAMACHO BUENO</t>
+  </si>
+  <si>
+    <t>45541075</t>
+  </si>
+  <si>
+    <t>YANIRIS MERCEDES BOLIVAR VELEZ</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>1014279587</t>
+  </si>
+  <si>
+    <t>DANYS CAMILA CIFUENTES CASTELBLANCO</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>22798796</t>
+  </si>
+  <si>
+    <t>MARIA ANGELICA CASANOVA GARCIA</t>
+  </si>
+  <si>
+    <t>64522243</t>
+  </si>
+  <si>
+    <t>PATRICIA DEL CARMEN BALDOVINO VILLERO</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>1047405345</t>
+  </si>
+  <si>
+    <t>KEISY VANESA SANCHEZ ROMERO</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>73194098</t>
+  </si>
+  <si>
+    <t>MARIO MARTINEZ RAMIREZ</t>
+  </si>
+  <si>
+    <t>1045670210</t>
+  </si>
+  <si>
+    <t>DIEGO ALEXANDER DIAZ ORTIZ</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>73187111</t>
+  </si>
+  <si>
+    <t>RAFAEL IGNACIO FERNANDEZ ZUÑIGA</t>
+  </si>
+  <si>
+    <t>1128063151</t>
+  </si>
+  <si>
+    <t>KATYA MILENIS RODRIGUEZ DIAZ</t>
+  </si>
+  <si>
+    <t>73211529</t>
+  </si>
+  <si>
+    <t>ELY ALFREDO FERNANDEZ CAIROZA</t>
+  </si>
+  <si>
+    <t>45499877</t>
+  </si>
+  <si>
+    <t>MARLY PEREZ LOMBANA</t>
+  </si>
+  <si>
+    <t>1102835840</t>
+  </si>
+  <si>
+    <t>DIANA CAROLINA BALLESTAS ARRIETA</t>
+  </si>
+  <si>
+    <t>1128062374</t>
+  </si>
+  <si>
+    <t>VICTOR ALFONSO MARIMON AGUASLIMPIAS</t>
+  </si>
+  <si>
+    <t>33100838</t>
+  </si>
+  <si>
+    <t>ANA ISABEL MORENO CARMONA</t>
+  </si>
+  <si>
+    <t>1003504730</t>
+  </si>
+  <si>
+    <t>NEIDER ENRIQUE CONTRERAS MENDEZ</t>
+  </si>
+  <si>
+    <t>45547986</t>
+  </si>
+  <si>
+    <t>LUISA CARMELA VASQUEZ BELTRAN</t>
+  </si>
+  <si>
+    <t>1143326648</t>
+  </si>
+  <si>
+    <t>JORGY FLOREZ LARA</t>
+  </si>
+  <si>
+    <t>1042584373</t>
+  </si>
+  <si>
+    <t>YENIFER PADILLA CUESTA</t>
+  </si>
+  <si>
+    <t>1003202611</t>
+  </si>
+  <si>
+    <t>ALFRED ANDRES QUINTERO QUINTERO</t>
+  </si>
+  <si>
+    <t>1047447759</t>
+  </si>
+  <si>
+    <t>KELLY DEL CARMEN CONTRERAS MEDINA</t>
+  </si>
+  <si>
+    <t>1007523433</t>
+  </si>
+  <si>
+    <t>CLAUDIA PATRICIA SALGADO MEDRANO</t>
+  </si>
+  <si>
+    <t>1032452616</t>
+  </si>
+  <si>
+    <t>ALVARO ANDRES CAMARGO TOVAR</t>
+  </si>
+  <si>
+    <t>1033807078</t>
+  </si>
+  <si>
+    <t>LIZETH NATALIA BERNAL GAMBA</t>
+  </si>
+  <si>
+    <t>1022402699</t>
+  </si>
+  <si>
+    <t>LAURA NATHALYE GODOY CASTILLO</t>
+  </si>
+  <si>
+    <t>1041973482</t>
+  </si>
+  <si>
+    <t>ANDRES DAVID QUINTERO OSPINO</t>
+  </si>
+  <si>
+    <t>1052096113</t>
+  </si>
+  <si>
+    <t>MARIO RAFAEL VERGARA CASTRO</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>1045670210</t>
-  </si>
-  <si>
-    <t>DIEGO ALEXANDER DIAZ ORTIZ</t>
-  </si>
-  <si>
-    <t>73187111</t>
-  </si>
-  <si>
-    <t>RAFAEL IGNACIO FERNANDEZ ZUÑIGA</t>
-  </si>
-  <si>
-    <t>1128063151</t>
-  </si>
-  <si>
-    <t>KATYA MILENIS RODRIGUEZ DIAZ</t>
-  </si>
-  <si>
-    <t>73211529</t>
-  </si>
-  <si>
-    <t>ELY ALFREDO FERNANDEZ CAIROZA</t>
-  </si>
-  <si>
-    <t>1143349815</t>
-  </si>
-  <si>
-    <t>ALEXANDER DE JESUS CORREA NIEVES</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1047405345</t>
-  </si>
-  <si>
-    <t>KEISY VANESA SANCHEZ ROMERO</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>1015429866</t>
-  </si>
-  <si>
-    <t>JOSE LUIS GONZALEZ PETRO</t>
-  </si>
-  <si>
-    <t>45499877</t>
-  </si>
-  <si>
-    <t>MARLY PEREZ LOMBANA</t>
-  </si>
-  <si>
-    <t>1102835840</t>
-  </si>
-  <si>
-    <t>DIANA CAROLINA BALLESTAS ARRIETA</t>
-  </si>
-  <si>
-    <t>1128062374</t>
-  </si>
-  <si>
-    <t>VICTOR ALFONSO MARIMON AGUASLIMPIAS</t>
-  </si>
-  <si>
-    <t>45541075</t>
-  </si>
-  <si>
-    <t>YANIRIS MERCEDES BOLIVAR VELEZ</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>9104976</t>
-  </si>
-  <si>
-    <t>JHONNY ENRIQUE CUADRADO MADRID</t>
-  </si>
-  <si>
-    <t>73194098</t>
-  </si>
-  <si>
-    <t>MARIO MARTINEZ RAMIREZ</t>
-  </si>
-  <si>
-    <t>1128051153</t>
-  </si>
-  <si>
-    <t>JAVIER EMILIO OROZCO JARAMILLO</t>
-  </si>
-  <si>
-    <t>1110499295</t>
-  </si>
-  <si>
-    <t>NATALIA LILIANA GONZALEZ SALCEDO</t>
-  </si>
-  <si>
-    <t>22799709</t>
-  </si>
-  <si>
-    <t>LAIDIS ARAUJO SANMARTIN</t>
-  </si>
-  <si>
-    <t>1143379820</t>
-  </si>
-  <si>
-    <t>YURANIS DEL CARMEN RODRIGUEZ CASTAÑO</t>
-  </si>
-  <si>
-    <t>33100838</t>
-  </si>
-  <si>
-    <t>ANA ISABEL MORENO CARMONA</t>
-  </si>
-  <si>
-    <t>1151449115</t>
-  </si>
-  <si>
-    <t>WILFREDO ECHEVERRIA GAVIRIA</t>
-  </si>
-  <si>
-    <t>1143383987</t>
-  </si>
-  <si>
-    <t>INEYDA MARIA HERRERA PUERTO</t>
-  </si>
-  <si>
-    <t>1003504730</t>
-  </si>
-  <si>
-    <t>NEIDER ENRIQUE CONTRERAS MENDEZ</t>
-  </si>
-  <si>
-    <t>45522445</t>
-  </si>
-  <si>
-    <t>ALEXANDRA PAJARO SANABRIA</t>
-  </si>
-  <si>
-    <t>64522243</t>
-  </si>
-  <si>
-    <t>PATRICIA DEL CARMEN BALDOVINO VILLERO</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>45547986</t>
-  </si>
-  <si>
-    <t>LUISA CARMELA VASQUEZ BELTRAN</t>
-  </si>
-  <si>
-    <t>64526129</t>
-  </si>
-  <si>
-    <t>MARICEL ALVAREZ MORALES</t>
-  </si>
-  <si>
-    <t>79614880</t>
-  </si>
-  <si>
-    <t>WALTER ENRIQUE MORENO BETANCOURTH</t>
-  </si>
-  <si>
-    <t>1143326648</t>
-  </si>
-  <si>
-    <t>JORGY FLOREZ LARA</t>
-  </si>
-  <si>
-    <t>1030605794</t>
-  </si>
-  <si>
-    <t>JEFFERSON MANUEL ANILLO BARRIOS</t>
-  </si>
-  <si>
-    <t>22798796</t>
-  </si>
-  <si>
-    <t>MARIA ANGELICA CASANOVA GARCIA</t>
-  </si>
-  <si>
-    <t>1019099209</t>
-  </si>
-  <si>
-    <t>SEBASTIAN ANDRES CANTOR AGUILERA</t>
-  </si>
-  <si>
-    <t>80090208</t>
-  </si>
-  <si>
-    <t>ALEJANDRO OSPINA RAMIREZ</t>
-  </si>
-  <si>
-    <t>1026294913</t>
-  </si>
-  <si>
-    <t>GERONIMO TUCCI CAMPOS</t>
-  </si>
-  <si>
-    <t>1030548456</t>
-  </si>
-  <si>
-    <t>LUIS HERNAN CACERES ROMERO</t>
-  </si>
-  <si>
-    <t>1047413224</t>
-  </si>
-  <si>
-    <t>RICARDO CESAR CAMACHO BUENO</t>
-  </si>
-  <si>
-    <t>1014279587</t>
-  </si>
-  <si>
-    <t>DANYS CAMILA CIFUENTES CASTELBLANCO</t>
-  </si>
-  <si>
-    <t>1042584373</t>
-  </si>
-  <si>
-    <t>YENIFER PADILLA CUESTA</t>
-  </si>
-  <si>
-    <t>1003202611</t>
-  </si>
-  <si>
-    <t>ALFRED ANDRES QUINTERO QUINTERO</t>
-  </si>
-  <si>
-    <t>1047447759</t>
-  </si>
-  <si>
-    <t>KELLY DEL CARMEN CONTRERAS MEDINA</t>
-  </si>
-  <si>
-    <t>1007523433</t>
-  </si>
-  <si>
-    <t>CLAUDIA PATRICIA SALGADO MEDRANO</t>
-  </si>
-  <si>
-    <t>1032452616</t>
-  </si>
-  <si>
-    <t>ALVARO ANDRES CAMARGO TOVAR</t>
-  </si>
-  <si>
-    <t>1033807078</t>
-  </si>
-  <si>
-    <t>LIZETH NATALIA BERNAL GAMBA</t>
-  </si>
-  <si>
-    <t>1022402699</t>
-  </si>
-  <si>
-    <t>LAURA NATHALYE GODOY CASTILLO</t>
-  </si>
-  <si>
-    <t>1041973482</t>
-  </si>
-  <si>
-    <t>ANDRES DAVID QUINTERO OSPINO</t>
-  </si>
-  <si>
-    <t>1052096113</t>
-  </si>
-  <si>
-    <t>MARIO RAFAEL VERGARA CASTRO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -412,7 +409,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,7 +464,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -480,9 +479,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -682,23 +679,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -726,10 +723,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -782,7 +779,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C943D75-34E0-1960-21F9-23882C1F98B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4089A94E-A19D-25CF-A29E-17BBCE835323}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1133,32 +1130,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78DD1A72-C1C9-4A12-8309-2866E23B9221}">
-  <dimension ref="B2:J174"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBD8C8B1-3E40-4B0C-8CDE-E2D5B3E34BA6}">
+  <dimension ref="B2:J175"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1167,7 +1164,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1178,7 +1175,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1189,7 +1186,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1200,10 +1197,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1216,8 +1213,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1232,15 +1229,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>10953619</v>
+        <v>11109013</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1248,27 +1245,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="5">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F13" s="5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1288,16 +1285,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1311,536 +1308,536 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>116560</v>
       </c>
       <c r="G16" s="18">
-        <v>900000</v>
+        <v>3060000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>56940</v>
+        <v>60000</v>
       </c>
       <c r="G17" s="18">
-        <v>900000</v>
+        <v>2000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>56940</v>
+        <v>50400</v>
       </c>
       <c r="G18" s="18">
-        <v>900000</v>
+        <v>1323000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>56940</v>
+        <v>36000</v>
       </c>
       <c r="G19" s="18">
-        <v>900000</v>
+        <v>945000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>56940</v>
+        <v>76560</v>
       </c>
       <c r="G20" s="18">
-        <v>900000</v>
+        <v>1914000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F21" s="18">
-        <v>80000</v>
+        <v>36000</v>
       </c>
       <c r="G21" s="18">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>80000</v>
+        <v>64560</v>
       </c>
       <c r="G22" s="18">
-        <v>2000000</v>
+        <v>1800000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>80000</v>
+        <v>48000</v>
       </c>
       <c r="G23" s="18">
-        <v>2000000</v>
+        <v>1260000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>80000</v>
+        <v>114560</v>
       </c>
       <c r="G24" s="18">
-        <v>2000000</v>
+        <v>2864000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
-        <v>80000</v>
+        <v>34000</v>
       </c>
       <c r="G25" s="18">
-        <v>2000000</v>
+        <v>900000</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F26" s="18">
-        <v>56940</v>
+        <v>34000</v>
       </c>
       <c r="G26" s="18">
-        <v>1423500</v>
+        <v>900000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18">
-        <v>56940</v>
+        <v>64000</v>
       </c>
       <c r="G27" s="18">
-        <v>1423500</v>
+        <v>1600000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18">
-        <v>56940</v>
+        <v>60000</v>
       </c>
       <c r="G28" s="18">
-        <v>1423500</v>
+        <v>1575000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18">
-        <v>56940</v>
+        <v>100000</v>
       </c>
       <c r="G29" s="18">
-        <v>1423500</v>
+        <v>3000000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18">
-        <v>56940</v>
+        <v>200000</v>
       </c>
       <c r="G30" s="18">
-        <v>1423500</v>
+        <v>5000000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>11</v>
       </c>
       <c r="F31" s="18">
-        <v>56940</v>
+        <v>48000</v>
       </c>
       <c r="G31" s="18">
-        <v>1423500</v>
+        <v>1260000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F32" s="18">
-        <v>56940</v>
+        <v>48000</v>
       </c>
       <c r="G32" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18">
-        <v>56940</v>
+        <v>108000</v>
       </c>
       <c r="G33" s="18">
-        <v>1423500</v>
+        <v>6000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F34" s="18">
-        <v>56940</v>
+        <v>52800</v>
       </c>
       <c r="G34" s="18">
-        <v>1423500</v>
+        <v>2310000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F35" s="18">
-        <v>56940</v>
+        <v>37800</v>
       </c>
       <c r="G35" s="18">
-        <v>1423500</v>
+        <v>2500000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F36" s="18">
-        <v>56940</v>
+        <v>72000</v>
       </c>
       <c r="G36" s="18">
-        <v>1423500</v>
+        <v>2310000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="F37" s="18">
-        <v>56940</v>
+        <v>40000</v>
       </c>
       <c r="G37" s="18">
-        <v>1423500</v>
+        <v>1220000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="F38" s="18">
-        <v>56940</v>
+        <v>54000</v>
       </c>
       <c r="G38" s="18">
-        <v>1423500</v>
+        <v>2500000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F39" s="18">
-        <v>56940</v>
+        <v>30666</v>
       </c>
       <c r="G39" s="18">
         <v>1423500</v>
@@ -1849,294 +1846,294 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F40" s="18">
-        <v>56940</v>
+        <v>64000</v>
       </c>
       <c r="G40" s="18">
-        <v>1423500</v>
+        <v>2310000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="F41" s="18">
-        <v>116560</v>
+        <v>40000</v>
       </c>
       <c r="G41" s="18">
-        <v>2914000</v>
+        <v>1423500</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F42" s="18">
-        <v>92400</v>
+        <v>64000</v>
       </c>
       <c r="G42" s="18">
-        <v>1378000</v>
+        <v>2310000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F43" s="18">
-        <v>92400</v>
+        <v>40000</v>
       </c>
       <c r="G43" s="18">
-        <v>1378000</v>
+        <v>1423500</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="F44" s="18">
-        <v>92400</v>
+        <v>64000</v>
       </c>
       <c r="G44" s="18">
-        <v>1378000</v>
+        <v>2310000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F45" s="18">
-        <v>92400</v>
+        <v>17013</v>
       </c>
       <c r="G45" s="18">
-        <v>1378000</v>
+        <v>1423500</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="F46" s="18">
-        <v>92400</v>
+        <v>40000</v>
       </c>
       <c r="G46" s="18">
-        <v>1378000</v>
+        <v>1423500</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F47" s="18">
-        <v>64000</v>
+        <v>80000</v>
       </c>
       <c r="G47" s="18">
-        <v>1378000</v>
+        <v>2000000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F48" s="18">
-        <v>64000</v>
+        <v>56940</v>
       </c>
       <c r="G48" s="18">
-        <v>1378000</v>
+        <v>1423500</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F49" s="18">
-        <v>64000</v>
+        <v>56940</v>
       </c>
       <c r="G49" s="18">
-        <v>1378000</v>
+        <v>1423500</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="F50" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G50" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F51" s="18">
-        <v>56940</v>
+        <v>92400</v>
       </c>
       <c r="G51" s="18">
-        <v>1423500</v>
+        <v>2310000</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F52" s="18">
         <v>56940</v>
@@ -2148,478 +2145,478 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F53" s="18">
-        <v>56940</v>
+        <v>63000</v>
       </c>
       <c r="G53" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F54" s="18">
-        <v>56940</v>
+        <v>75600</v>
       </c>
       <c r="G54" s="18">
-        <v>1423500</v>
+        <v>1890000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F55" s="18">
-        <v>56940</v>
+        <v>92400</v>
       </c>
       <c r="G55" s="18">
-        <v>1423500</v>
+        <v>2310000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F56" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G56" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F57" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G57" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F58" s="18">
-        <v>60000</v>
+        <v>84000</v>
       </c>
       <c r="G58" s="18">
-        <v>1500000</v>
+        <v>2100000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F59" s="18">
-        <v>63000</v>
+        <v>56940</v>
       </c>
       <c r="G59" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F60" s="18">
-        <v>63000</v>
+        <v>52000</v>
       </c>
       <c r="G60" s="18">
-        <v>1500000</v>
+        <v>1300000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="F61" s="18">
-        <v>75600</v>
+        <v>56940</v>
       </c>
       <c r="G61" s="18">
-        <v>1890000</v>
+        <v>1423500</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F62" s="18">
-        <v>75600</v>
+        <v>56940</v>
       </c>
       <c r="G62" s="18">
-        <v>1890000</v>
+        <v>1423500</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F63" s="18">
-        <v>75600</v>
+        <v>63000</v>
       </c>
       <c r="G63" s="18">
-        <v>1890000</v>
+        <v>1500000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F64" s="18">
-        <v>75600</v>
+        <v>56940</v>
       </c>
       <c r="G64" s="18">
-        <v>1890000</v>
+        <v>1423500</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F65" s="18">
-        <v>75600</v>
+        <v>56940</v>
       </c>
       <c r="G65" s="18">
-        <v>1890000</v>
+        <v>1300000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="F66" s="18">
-        <v>92400</v>
+        <v>320000</v>
       </c>
       <c r="G66" s="18">
-        <v>2310000</v>
+        <v>8000000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F67" s="18">
-        <v>92400</v>
+        <v>68000</v>
       </c>
       <c r="G67" s="18">
-        <v>2310000</v>
+        <v>1700000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="F68" s="18">
-        <v>92400</v>
+        <v>68000</v>
       </c>
       <c r="G68" s="18">
-        <v>2310000</v>
+        <v>1700000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="F69" s="18">
-        <v>92400</v>
+        <v>56940</v>
       </c>
       <c r="G69" s="18">
-        <v>2310000</v>
+        <v>1423500</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="F70" s="18">
-        <v>72000</v>
+        <v>56940</v>
       </c>
       <c r="G70" s="18">
-        <v>2310000</v>
+        <v>1423500</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="F71" s="18">
-        <v>52800</v>
+        <v>80000</v>
       </c>
       <c r="G71" s="18">
-        <v>2310000</v>
+        <v>2000000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F72" s="18">
-        <v>50400</v>
+        <v>56940</v>
       </c>
       <c r="G72" s="18">
-        <v>1260000</v>
+        <v>1423500</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="F73" s="18">
         <v>56940</v>
@@ -2631,18 +2628,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="F74" s="18">
         <v>56940</v>
@@ -2654,41 +2651,41 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
       <c r="B75" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F75" s="18">
-        <v>56940</v>
+        <v>92400</v>
       </c>
       <c r="G75" s="18">
-        <v>1423500</v>
+        <v>2310000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:10">
       <c r="B76" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F76" s="18">
         <v>56940</v>
@@ -2700,156 +2697,156 @@
       <c r="I76" s="19"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:10">
       <c r="B77" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F77" s="18">
-        <v>56940</v>
+        <v>63000</v>
       </c>
       <c r="G77" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:10">
       <c r="B78" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="F78" s="18">
-        <v>17013</v>
+        <v>75600</v>
       </c>
       <c r="G78" s="18">
-        <v>1423500</v>
+        <v>1890000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:10">
       <c r="B79" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F79" s="18">
-        <v>36000</v>
+        <v>92400</v>
       </c>
       <c r="G79" s="18">
-        <v>900000</v>
+        <v>2310000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="20"/>
     </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:10">
       <c r="B80" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F80" s="18">
-        <v>76560</v>
+        <v>56940</v>
       </c>
       <c r="G80" s="18">
-        <v>1914000</v>
+        <v>1423500</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="20"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:10">
       <c r="B81" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F81" s="18">
-        <v>36000</v>
+        <v>56940</v>
       </c>
       <c r="G81" s="18">
-        <v>900000</v>
+        <v>1423500</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="20"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:10">
       <c r="B82" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F82" s="18">
-        <v>64560</v>
+        <v>84000</v>
       </c>
       <c r="G82" s="18">
-        <v>1614000</v>
+        <v>2100000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="20"/>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:10">
       <c r="B83" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="F83" s="18">
         <v>56940</v>
@@ -2861,41 +2858,41 @@
       <c r="I83" s="19"/>
       <c r="J83" s="20"/>
     </row>
-    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:10">
       <c r="B84" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="F84" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G84" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
-    <row r="85" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:10">
       <c r="B85" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F85" s="18">
         <v>56940</v>
@@ -2907,18 +2904,18 @@
       <c r="I85" s="19"/>
       <c r="J85" s="20"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:10">
       <c r="B86" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F86" s="18">
         <v>56940</v>
@@ -2930,225 +2927,225 @@
       <c r="I86" s="19"/>
       <c r="J86" s="20"/>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:10">
       <c r="B87" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D87" s="17" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E87" s="16" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F87" s="18">
-        <v>56940</v>
+        <v>63000</v>
       </c>
       <c r="G87" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="20"/>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:10">
       <c r="B88" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D88" s="17" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="E88" s="16" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F88" s="18">
-        <v>48000</v>
+        <v>56940</v>
       </c>
       <c r="G88" s="18">
-        <v>1200000</v>
+        <v>1423500</v>
       </c>
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="20"/>
     </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:10">
       <c r="B89" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="E89" s="16" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="F89" s="18">
-        <v>114560</v>
+        <v>56940</v>
       </c>
       <c r="G89" s="18">
-        <v>2864000</v>
+        <v>1300000</v>
       </c>
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="20"/>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:10">
       <c r="B90" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E90" s="16" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="F90" s="18">
-        <v>84000</v>
+        <v>320000</v>
       </c>
       <c r="G90" s="18">
-        <v>2100000</v>
+        <v>8000000</v>
       </c>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
       <c r="J90" s="20"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:10">
       <c r="B91" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="D91" s="17" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="E91" s="16" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="F91" s="18">
-        <v>84000</v>
+        <v>68000</v>
       </c>
       <c r="G91" s="18">
-        <v>2100000</v>
+        <v>1700000</v>
       </c>
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="20"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:10">
       <c r="B92" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="D92" s="17" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E92" s="16" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
       <c r="F92" s="18">
-        <v>84000</v>
+        <v>68000</v>
       </c>
       <c r="G92" s="18">
-        <v>2100000</v>
+        <v>1700000</v>
       </c>
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="20"/>
     </row>
-    <row r="93" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:10">
       <c r="B93" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="D93" s="17" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="E93" s="16" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="F93" s="18">
-        <v>84000</v>
+        <v>56940</v>
       </c>
       <c r="G93" s="18">
-        <v>2100000</v>
+        <v>1423500</v>
       </c>
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="20"/>
     </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:10">
       <c r="B94" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="E94" s="16" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="F94" s="18">
-        <v>84000</v>
+        <v>56940</v>
       </c>
       <c r="G94" s="18">
-        <v>2100000</v>
+        <v>1423500</v>
       </c>
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="20"/>
     </row>
-    <row r="95" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:10">
       <c r="B95" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E95" s="16" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F95" s="18">
-        <v>34000</v>
+        <v>56940</v>
       </c>
       <c r="G95" s="18">
-        <v>850000</v>
+        <v>1423500</v>
       </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="20"/>
     </row>
-    <row r="96" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:10">
       <c r="B96" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D96" s="17" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E96" s="16" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F96" s="18">
         <v>56940</v>
@@ -3160,41 +3157,41 @@
       <c r="I96" s="19"/>
       <c r="J96" s="20"/>
     </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:10">
       <c r="B97" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D97" s="17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="F97" s="18">
-        <v>56940</v>
+        <v>92400</v>
       </c>
       <c r="G97" s="18">
-        <v>1423500</v>
+        <v>2310000</v>
       </c>
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="20"/>
     </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:10">
       <c r="B98" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="F98" s="18">
         <v>56940</v>
@@ -3206,67 +3203,67 @@
       <c r="I98" s="19"/>
       <c r="J98" s="20"/>
     </row>
-    <row r="99" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:10">
       <c r="B99" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="F99" s="18">
-        <v>56940</v>
+        <v>60000</v>
       </c>
       <c r="G99" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
       <c r="J99" s="20"/>
     </row>
-    <row r="100" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="2:10">
       <c r="B100" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D100" s="17" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E100" s="16" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="F100" s="18">
-        <v>56940</v>
+        <v>75600</v>
       </c>
       <c r="G100" s="18">
-        <v>1423500</v>
+        <v>1890000</v>
       </c>
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="20"/>
     </row>
-    <row r="101" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:10">
       <c r="B101" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D101" s="17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E101" s="16" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F101" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G101" s="18">
         <v>1423500</v>
@@ -3275,21 +3272,21 @@
       <c r="I101" s="19"/>
       <c r="J101" s="20"/>
     </row>
-    <row r="102" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:10">
       <c r="B102" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D102" s="17" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="E102" s="16" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="F102" s="18">
-        <v>40000</v>
+        <v>56940</v>
       </c>
       <c r="G102" s="18">
         <v>1423500</v>
@@ -3298,44 +3295,44 @@
       <c r="I102" s="19"/>
       <c r="J102" s="20"/>
     </row>
-    <row r="103" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:10">
       <c r="B103" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="D103" s="17" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="E103" s="16" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="F103" s="18">
-        <v>40000</v>
+        <v>84000</v>
       </c>
       <c r="G103" s="18">
-        <v>1423500</v>
+        <v>2100000</v>
       </c>
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
       <c r="J103" s="20"/>
     </row>
-    <row r="104" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:10">
       <c r="B104" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="E104" s="16" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="F104" s="18">
-        <v>30666</v>
+        <v>56940</v>
       </c>
       <c r="G104" s="18">
         <v>1423500</v>
@@ -3344,18 +3341,18 @@
       <c r="I104" s="19"/>
       <c r="J104" s="20"/>
     </row>
-    <row r="105" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:10">
       <c r="B105" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D105" s="17" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E105" s="16" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F105" s="18">
         <v>52000</v>
@@ -3367,87 +3364,87 @@
       <c r="I105" s="19"/>
       <c r="J105" s="20"/>
     </row>
-    <row r="106" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:10">
       <c r="B106" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="D106" s="17" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E106" s="16" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="F106" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G106" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H106" s="19"/>
       <c r="I106" s="19"/>
       <c r="J106" s="20"/>
     </row>
-    <row r="107" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="107" spans="2:10">
       <c r="B107" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D107" s="17" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="E107" s="16" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="F107" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G107" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H107" s="19"/>
       <c r="I107" s="19"/>
       <c r="J107" s="20"/>
     </row>
-    <row r="108" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:10">
       <c r="B108" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D108" s="17" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E108" s="16" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="F108" s="18">
-        <v>52000</v>
+        <v>60000</v>
       </c>
       <c r="G108" s="18">
-        <v>1300000</v>
+        <v>1500000</v>
       </c>
       <c r="H108" s="19"/>
       <c r="I108" s="19"/>
       <c r="J108" s="20"/>
     </row>
-    <row r="109" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:10">
       <c r="B109" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E109" s="16" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="F109" s="18">
         <v>52000</v>
@@ -3459,87 +3456,87 @@
       <c r="I109" s="19"/>
       <c r="J109" s="20"/>
     </row>
-    <row r="110" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:10">
       <c r="B110" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F110" s="18">
-        <v>34000</v>
+        <v>320000</v>
       </c>
       <c r="G110" s="18">
-        <v>850000</v>
+        <v>8000000</v>
       </c>
       <c r="H110" s="19"/>
       <c r="I110" s="19"/>
       <c r="J110" s="20"/>
     </row>
-    <row r="111" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:10">
       <c r="B111" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D111" s="17" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E111" s="16" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="F111" s="18">
-        <v>64000</v>
+        <v>68000</v>
       </c>
       <c r="G111" s="18">
-        <v>1600000</v>
+        <v>1700000</v>
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="19"/>
       <c r="J111" s="20"/>
     </row>
-    <row r="112" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:10">
       <c r="B112" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E112" s="16" t="s">
-        <v>11</v>
+        <v>106</v>
       </c>
       <c r="F112" s="18">
-        <v>56940</v>
+        <v>68000</v>
       </c>
       <c r="G112" s="18">
-        <v>1423500</v>
+        <v>1700000</v>
       </c>
       <c r="H112" s="19"/>
       <c r="I112" s="19"/>
       <c r="J112" s="20"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10">
       <c r="B113" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="F113" s="18">
         <v>56940</v>
@@ -3551,18 +3548,18 @@
       <c r="I113" s="19"/>
       <c r="J113" s="20"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10">
       <c r="B114" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E114" s="16" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F114" s="18">
         <v>56940</v>
@@ -3574,18 +3571,18 @@
       <c r="I114" s="19"/>
       <c r="J114" s="20"/>
     </row>
-    <row r="115" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:10">
       <c r="B115" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D115" s="17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E115" s="16" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F115" s="18">
         <v>56940</v>
@@ -3597,248 +3594,248 @@
       <c r="I115" s="19"/>
       <c r="J115" s="20"/>
     </row>
-    <row r="116" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:10">
       <c r="B116" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D116" s="17" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="E116" s="16" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="F116" s="18">
-        <v>56940</v>
+        <v>92400</v>
       </c>
       <c r="G116" s="18">
-        <v>1423500</v>
+        <v>2310000</v>
       </c>
       <c r="H116" s="19"/>
       <c r="I116" s="19"/>
       <c r="J116" s="20"/>
     </row>
-    <row r="117" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:10">
       <c r="B117" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D117" s="17" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E117" s="16" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="F117" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G117" s="18">
-        <v>737717</v>
+        <v>1423500</v>
       </c>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
       <c r="J117" s="20"/>
     </row>
-    <row r="118" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:10">
       <c r="B118" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D118" s="17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E118" s="16" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="F118" s="18">
-        <v>40000</v>
+        <v>60000</v>
       </c>
       <c r="G118" s="18">
-        <v>1220000</v>
+        <v>1500000</v>
       </c>
       <c r="H118" s="19"/>
       <c r="I118" s="19"/>
       <c r="J118" s="20"/>
     </row>
-    <row r="119" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:10">
       <c r="B119" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E119" s="16" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="F119" s="18">
-        <v>100000</v>
+        <v>75600</v>
       </c>
       <c r="G119" s="18">
-        <v>2500000</v>
+        <v>1890000</v>
       </c>
       <c r="H119" s="19"/>
       <c r="I119" s="19"/>
       <c r="J119" s="20"/>
     </row>
-    <row r="120" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:10">
       <c r="B120" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="F120" s="18">
-        <v>200000</v>
+        <v>56940</v>
       </c>
       <c r="G120" s="18">
-        <v>5000000</v>
+        <v>1423500</v>
       </c>
       <c r="H120" s="19"/>
       <c r="I120" s="19"/>
       <c r="J120" s="20"/>
     </row>
-    <row r="121" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:10">
       <c r="B121" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E121" s="16" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="F121" s="18">
-        <v>48000</v>
+        <v>56940</v>
       </c>
       <c r="G121" s="18">
-        <v>1200000</v>
+        <v>1423500</v>
       </c>
       <c r="H121" s="19"/>
       <c r="I121" s="19"/>
       <c r="J121" s="20"/>
     </row>
-    <row r="122" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:10">
       <c r="B122" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E122" s="16" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="F122" s="18">
-        <v>48000</v>
+        <v>84000</v>
       </c>
       <c r="G122" s="18">
-        <v>1200000</v>
+        <v>2100000</v>
       </c>
       <c r="H122" s="19"/>
       <c r="I122" s="19"/>
       <c r="J122" s="20"/>
     </row>
-    <row r="123" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:10">
       <c r="B123" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="D123" s="17" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="F123" s="18">
-        <v>108000</v>
+        <v>56940</v>
       </c>
       <c r="G123" s="18">
-        <v>6000000</v>
+        <v>1423500</v>
       </c>
       <c r="H123" s="19"/>
       <c r="I123" s="19"/>
       <c r="J123" s="20"/>
     </row>
-    <row r="124" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:10">
       <c r="B124" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E124" s="16" t="s">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="F124" s="18">
-        <v>54000</v>
+        <v>52000</v>
       </c>
       <c r="G124" s="18">
-        <v>1950000</v>
+        <v>1300000</v>
       </c>
       <c r="H124" s="19"/>
       <c r="I124" s="19"/>
       <c r="J124" s="20"/>
     </row>
-    <row r="125" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:10">
       <c r="B125" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E125" s="16" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="F125" s="18">
-        <v>37800</v>
+        <v>56940</v>
       </c>
       <c r="G125" s="18">
-        <v>1950000</v>
+        <v>1423500</v>
       </c>
       <c r="H125" s="19"/>
       <c r="I125" s="19"/>
       <c r="J125" s="20"/>
     </row>
-    <row r="126" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:10">
       <c r="B126" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E126" s="16" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F126" s="18">
         <v>56940</v>
@@ -3850,30 +3847,30 @@
       <c r="I126" s="19"/>
       <c r="J126" s="20"/>
     </row>
-    <row r="127" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:10">
       <c r="B127" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D127" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E127" s="16" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="F127" s="18">
-        <v>56940</v>
+        <v>60000</v>
       </c>
       <c r="G127" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H127" s="19"/>
       <c r="I127" s="19"/>
       <c r="J127" s="20"/>
     </row>
-    <row r="128" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:10">
       <c r="B128" s="15" t="s">
         <v>8</v>
       </c>
@@ -3884,191 +3881,191 @@
         <v>94</v>
       </c>
       <c r="E128" s="16" t="s">
-        <v>13</v>
+        <v>107</v>
       </c>
       <c r="F128" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G128" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
       <c r="J128" s="20"/>
     </row>
-    <row r="129" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:10">
       <c r="B129" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D129" s="17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="F129" s="18">
-        <v>56940</v>
+        <v>320000</v>
       </c>
       <c r="G129" s="18">
-        <v>1423500</v>
+        <v>8000000</v>
       </c>
       <c r="H129" s="19"/>
       <c r="I129" s="19"/>
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:10">
       <c r="B130" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D130" s="17" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E130" s="16" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="F130" s="18">
-        <v>56940</v>
+        <v>68000</v>
       </c>
       <c r="G130" s="18">
-        <v>1423500</v>
+        <v>1700000</v>
       </c>
       <c r="H130" s="19"/>
       <c r="I130" s="19"/>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:10">
       <c r="B131" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D131" s="17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E131" s="16" t="s">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="F131" s="18">
-        <v>60000</v>
+        <v>68000</v>
       </c>
       <c r="G131" s="18">
-        <v>1500000</v>
+        <v>1700000</v>
       </c>
       <c r="H131" s="19"/>
       <c r="I131" s="19"/>
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:10">
       <c r="B132" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D132" s="17" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="E132" s="16" t="s">
-        <v>12</v>
+        <v>107</v>
       </c>
       <c r="F132" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G132" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H132" s="19"/>
       <c r="I132" s="19"/>
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:10">
       <c r="B133" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>95</v>
+        <v>67</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="E133" s="16" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F133" s="18">
-        <v>60000</v>
+        <v>56940</v>
       </c>
       <c r="G133" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H133" s="19"/>
       <c r="I133" s="19"/>
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:10">
       <c r="B134" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="E134" s="16" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F134" s="18">
-        <v>63000</v>
+        <v>56940</v>
       </c>
       <c r="G134" s="18">
-        <v>1500000</v>
+        <v>1423500</v>
       </c>
       <c r="H134" s="19"/>
       <c r="I134" s="19"/>
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:10">
       <c r="B135" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="D135" s="17" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="E135" s="16" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F135" s="18">
-        <v>63000</v>
+        <v>92400</v>
       </c>
       <c r="G135" s="18">
-        <v>1500000</v>
+        <v>2310000</v>
       </c>
       <c r="H135" s="19"/>
       <c r="I135" s="19"/>
       <c r="J135" s="20"/>
     </row>
-    <row r="136" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:10">
       <c r="B136" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="E136" s="16" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F136" s="18">
         <v>56940</v>
@@ -4080,159 +4077,159 @@
       <c r="I136" s="19"/>
       <c r="J136" s="20"/>
     </row>
-    <row r="137" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:10">
       <c r="B137" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E137" s="16" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F137" s="18">
-        <v>56940</v>
+        <v>60000</v>
       </c>
       <c r="G137" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H137" s="19"/>
       <c r="I137" s="19"/>
       <c r="J137" s="20"/>
     </row>
-    <row r="138" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:10">
       <c r="B138" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E138" s="16" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F138" s="18">
-        <v>56940</v>
+        <v>75600</v>
       </c>
       <c r="G138" s="18">
-        <v>1423500</v>
+        <v>1890000</v>
       </c>
       <c r="H138" s="19"/>
       <c r="I138" s="19"/>
       <c r="J138" s="20"/>
     </row>
-    <row r="139" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:10">
       <c r="B139" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="D139" s="17" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="E139" s="16" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F139" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G139" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:10">
       <c r="B140" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D140" s="17" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E140" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="F140" s="18">
-        <v>52000</v>
+        <v>56940</v>
       </c>
       <c r="G140" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H140" s="19"/>
       <c r="I140" s="19"/>
       <c r="J140" s="20"/>
     </row>
-    <row r="141" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:10">
       <c r="B141" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D141" s="17" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E141" s="16" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F141" s="18">
-        <v>52000</v>
+        <v>84000</v>
       </c>
       <c r="G141" s="18">
-        <v>1300000</v>
+        <v>2100000</v>
       </c>
       <c r="H141" s="19"/>
       <c r="I141" s="19"/>
       <c r="J141" s="20"/>
     </row>
-    <row r="142" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:10">
       <c r="B142" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="D142" s="17" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E142" s="16" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F142" s="18">
         <v>56940</v>
       </c>
       <c r="G142" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H142" s="19"/>
       <c r="I142" s="19"/>
       <c r="J142" s="20"/>
     </row>
-    <row r="143" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:10">
       <c r="B143" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D143" s="17" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="E143" s="16" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F143" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G143" s="18">
         <v>1300000</v>
@@ -4241,110 +4238,110 @@
       <c r="I143" s="19"/>
       <c r="J143" s="20"/>
     </row>
-    <row r="144" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:10">
       <c r="B144" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D144" s="17" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E144" s="16" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F144" s="18">
-        <v>320000</v>
+        <v>56940</v>
       </c>
       <c r="G144" s="18">
-        <v>8000000</v>
+        <v>1423500</v>
       </c>
       <c r="H144" s="19"/>
       <c r="I144" s="19"/>
       <c r="J144" s="20"/>
     </row>
-    <row r="145" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:10">
       <c r="B145" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D145" s="17" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E145" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="F145" s="18">
-        <v>320000</v>
+        <v>56940</v>
       </c>
       <c r="G145" s="18">
-        <v>8000000</v>
+        <v>1423500</v>
       </c>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
       <c r="J145" s="20"/>
     </row>
-    <row r="146" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:10">
       <c r="B146" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="E146" s="16" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F146" s="18">
-        <v>320000</v>
+        <v>60000</v>
       </c>
       <c r="G146" s="18">
-        <v>8000000</v>
+        <v>1500000</v>
       </c>
       <c r="H146" s="19"/>
       <c r="I146" s="19"/>
       <c r="J146" s="20"/>
     </row>
-    <row r="147" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:10">
       <c r="B147" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E147" s="16" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F147" s="18">
-        <v>320000</v>
+        <v>52000</v>
       </c>
       <c r="G147" s="18">
-        <v>8000000</v>
+        <v>1300000</v>
       </c>
       <c r="H147" s="19"/>
       <c r="I147" s="19"/>
       <c r="J147" s="20"/>
     </row>
-    <row r="148" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:10">
       <c r="B148" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D148" s="17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E148" s="16" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="F148" s="18">
         <v>320000</v>
@@ -4356,18 +4353,18 @@
       <c r="I148" s="19"/>
       <c r="J148" s="20"/>
     </row>
-    <row r="149" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:10">
       <c r="B149" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E149" s="16" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="F149" s="18">
         <v>68000</v>
@@ -4379,18 +4376,18 @@
       <c r="I149" s="19"/>
       <c r="J149" s="20"/>
     </row>
-    <row r="150" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:10">
       <c r="B150" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E150" s="16" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="F150" s="18">
         <v>68000</v>
@@ -4402,202 +4399,202 @@
       <c r="I150" s="19"/>
       <c r="J150" s="20"/>
     </row>
-    <row r="151" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:10">
       <c r="B151" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D151" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E151" s="16" t="s">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="F151" s="18">
-        <v>68000</v>
+        <v>56940</v>
       </c>
       <c r="G151" s="18">
-        <v>1700000</v>
+        <v>1423500</v>
       </c>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
       <c r="J151" s="20"/>
     </row>
-    <row r="152" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:10">
       <c r="B152" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="D152" s="17" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="E152" s="16" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F152" s="18">
-        <v>68000</v>
+        <v>56940</v>
       </c>
       <c r="G152" s="18">
-        <v>1700000</v>
+        <v>1423500</v>
       </c>
       <c r="H152" s="19"/>
       <c r="I152" s="19"/>
       <c r="J152" s="20"/>
     </row>
-    <row r="153" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:10">
       <c r="B153" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="D153" s="17" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="E153" s="16" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F153" s="18">
-        <v>68000</v>
+        <v>41756</v>
       </c>
       <c r="G153" s="18">
-        <v>1700000</v>
+        <v>1423500</v>
       </c>
       <c r="H153" s="19"/>
       <c r="I153" s="19"/>
       <c r="J153" s="20"/>
     </row>
-    <row r="154" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:10">
       <c r="B154" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D154" s="17" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E154" s="16" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F154" s="18">
-        <v>68000</v>
+        <v>92400</v>
       </c>
       <c r="G154" s="18">
-        <v>1700000</v>
+        <v>2310000</v>
       </c>
       <c r="H154" s="19"/>
       <c r="I154" s="19"/>
       <c r="J154" s="20"/>
     </row>
-    <row r="155" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:10">
       <c r="B155" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="D155" s="17" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="E155" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F155" s="18">
-        <v>68000</v>
+        <v>56940</v>
       </c>
       <c r="G155" s="18">
-        <v>1700000</v>
+        <v>1423500</v>
       </c>
       <c r="H155" s="19"/>
       <c r="I155" s="19"/>
       <c r="J155" s="20"/>
     </row>
-    <row r="156" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:10">
       <c r="B156" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="D156" s="17" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="E156" s="16" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F156" s="18">
-        <v>68000</v>
+        <v>60000</v>
       </c>
       <c r="G156" s="18">
-        <v>1700000</v>
+        <v>1500000</v>
       </c>
       <c r="H156" s="19"/>
       <c r="I156" s="19"/>
       <c r="J156" s="20"/>
     </row>
-    <row r="157" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:10">
       <c r="B157" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="D157" s="17" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="E157" s="16" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F157" s="18">
-        <v>68000</v>
+        <v>75600</v>
       </c>
       <c r="G157" s="18">
-        <v>1700000</v>
+        <v>1890000</v>
       </c>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
       <c r="J157" s="20"/>
     </row>
-    <row r="158" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:10">
       <c r="B158" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="D158" s="17" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F158" s="18">
-        <v>68000</v>
+        <v>20878</v>
       </c>
       <c r="G158" s="18">
-        <v>1700000</v>
+        <v>1423500</v>
       </c>
       <c r="H158" s="19"/>
       <c r="I158" s="19"/>
       <c r="J158" s="20"/>
     </row>
-    <row r="159" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:10">
       <c r="B159" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="E159" s="16" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="F159" s="18">
         <v>56940</v>
@@ -4609,41 +4606,41 @@
       <c r="I159" s="19"/>
       <c r="J159" s="20"/>
     </row>
-    <row r="160" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:10">
       <c r="B160" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="E160" s="16" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="F160" s="18">
-        <v>56940</v>
+        <v>11200</v>
       </c>
       <c r="G160" s="18">
-        <v>1423500</v>
+        <v>2100000</v>
       </c>
       <c r="H160" s="19"/>
       <c r="I160" s="19"/>
       <c r="J160" s="20"/>
     </row>
-    <row r="161" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:10">
       <c r="B161" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="D161" s="17" t="s">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="E161" s="16" t="s">
-        <v>13</v>
+        <v>109</v>
       </c>
       <c r="F161" s="18">
         <v>56940</v>
@@ -4655,41 +4652,41 @@
       <c r="I161" s="19"/>
       <c r="J161" s="20"/>
     </row>
-    <row r="162" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:10">
       <c r="B162" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E162" s="16" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="F162" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G162" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H162" s="19"/>
       <c r="I162" s="19"/>
       <c r="J162" s="20"/>
     </row>
-    <row r="163" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:10">
       <c r="B163" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D163" s="17" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="F163" s="18">
         <v>56940</v>
@@ -4701,18 +4698,18 @@
       <c r="I163" s="19"/>
       <c r="J163" s="20"/>
     </row>
-    <row r="164" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:10">
       <c r="B164" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C164" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D164" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E164" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E164" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F164" s="18">
         <v>56940</v>
@@ -4724,126 +4721,149 @@
       <c r="I164" s="19"/>
       <c r="J164" s="20"/>
     </row>
-    <row r="165" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:10">
       <c r="B165" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C165" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D165" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E165" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D165" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E165" s="16" t="s">
-        <v>12</v>
-      </c>
       <c r="F165" s="18">
-        <v>56940</v>
+        <v>60000</v>
       </c>
       <c r="G165" s="18">
-        <v>1423500</v>
+        <v>1500000</v>
       </c>
       <c r="H165" s="19"/>
       <c r="I165" s="19"/>
       <c r="J165" s="20"/>
     </row>
-    <row r="166" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:10">
       <c r="B166" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C166" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D166" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E166" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D166" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E166" s="16" t="s">
-        <v>13</v>
-      </c>
       <c r="F166" s="18">
-        <v>56940</v>
+        <v>52000</v>
       </c>
       <c r="G166" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H166" s="19"/>
       <c r="I166" s="19"/>
       <c r="J166" s="20"/>
     </row>
-    <row r="167" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:10">
       <c r="B167" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C167" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D167" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E167" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D167" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F167" s="18">
-        <v>56940</v>
+        <v>320000</v>
       </c>
       <c r="G167" s="18">
-        <v>1423500</v>
+        <v>8000000</v>
       </c>
       <c r="H167" s="19"/>
       <c r="I167" s="19"/>
       <c r="J167" s="20"/>
     </row>
-    <row r="168" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B168" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C168" s="22" t="s">
+    <row r="168" spans="2:10">
+      <c r="B168" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D168" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E168" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D168" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E168" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F168" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G168" s="24">
-        <v>1423500</v>
-      </c>
-      <c r="H168" s="25"/>
-      <c r="I168" s="25"/>
-      <c r="J168" s="26"/>
-    </row>
-    <row r="173" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B173" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C173" s="32"/>
-      <c r="H173" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-    </row>
-    <row r="174" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F168" s="18">
+        <v>68000</v>
+      </c>
+      <c r="G168" s="18">
+        <v>1700000</v>
+      </c>
+      <c r="H168" s="19"/>
+      <c r="I168" s="19"/>
+      <c r="J168" s="20"/>
+    </row>
+    <row r="169" spans="2:10">
+      <c r="B169" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D169" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E169" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F169" s="24">
+        <v>68000</v>
+      </c>
+      <c r="G169" s="24">
+        <v>1700000</v>
+      </c>
+      <c r="H169" s="25"/>
+      <c r="I169" s="25"/>
+      <c r="J169" s="26"/>
+    </row>
+    <row r="174" spans="2:10">
       <c r="B174" s="32" t="s">
         <v>119</v>
       </c>
       <c r="C174" s="32"/>
       <c r="H174" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
     </row>
+    <row r="175" spans="2:10">
+      <c r="B175" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C175" s="32"/>
+      <c r="H175" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I175" s="1"/>
+      <c r="J175" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B175:C175"/>
     <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="H175:J175"/>
     <mergeCell ref="H174:J174"/>
-    <mergeCell ref="H173:J173"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
